--- a/LR3/table_1_32.xlsx
+++ b/LR3/table_1_32.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9733024D-2EA8-4495-AB1D-4C758A3158FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D3238B-235E-42DA-8F10-9189CA20838B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -183,10 +183,10 @@
     <t>Максимальный срок просрочки, дней</t>
   </si>
   <si>
-    <t>Максимальная сумма к оплате, руб</t>
-  </si>
-  <si>
-    <t>Пенни за день, руб</t>
+    <t>Максимальная сумма к оплате, руб.</t>
+  </si>
+  <si>
+    <t>Пенни за день, руб.</t>
   </si>
 </sst>
 </file>
@@ -256,7 +256,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -539,8 +539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="E25" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -647,7 +647,7 @@
         <v>69.5</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" ref="D4:D38" si="0">1.1*$A$1</f>
+        <f t="shared" ref="D4:D34" si="0">1.1*$A$1</f>
         <v>35.200000000000003</v>
       </c>
       <c r="E4" s="1">
@@ -666,6 +666,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
+        <f>I3</f>
         <v>10</v>
       </c>
       <c r="J4" s="1">
@@ -708,6 +709,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
+        <f>I4</f>
         <v>10</v>
       </c>
       <c r="J5" s="1">
@@ -750,6 +752,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
+        <f t="shared" ref="I6:I38" si="7">I5</f>
         <v>10</v>
       </c>
       <c r="J6" s="1">
@@ -792,6 +795,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J7" s="1">
@@ -834,6 +838,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="1">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J8" s="1">
@@ -876,6 +881,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="1">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J9" s="1">
@@ -918,6 +924,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="1">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J10" s="1">
@@ -960,6 +967,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="1">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J11" s="1">
@@ -1002,6 +1010,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="1">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J12" s="1">
@@ -1044,6 +1053,7 @@
         <v>2</v>
       </c>
       <c r="I13" s="1">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J13" s="1">
@@ -1086,6 +1096,7 @@
         <v>3</v>
       </c>
       <c r="I14" s="1">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J14" s="1">
@@ -1128,6 +1139,7 @@
         <v>4</v>
       </c>
       <c r="I15" s="1">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J15" s="1">
@@ -1170,6 +1182,7 @@
         <v>5</v>
       </c>
       <c r="I16" s="1">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J16" s="1">
@@ -1212,6 +1225,7 @@
         <v>6</v>
       </c>
       <c r="I17" s="1">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J17" s="1">
@@ -1254,6 +1268,7 @@
         <v>7</v>
       </c>
       <c r="I18" s="1">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J18" s="1">
@@ -1296,6 +1311,7 @@
         <v>8</v>
       </c>
       <c r="I19" s="1">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J19" s="1">
@@ -1338,6 +1354,7 @@
         <v>9</v>
       </c>
       <c r="I20" s="1">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J20" s="1">
@@ -1380,6 +1397,7 @@
         <v>10</v>
       </c>
       <c r="I21" s="1">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J21" s="1">
@@ -1422,6 +1440,7 @@
         <v>11</v>
       </c>
       <c r="I22" s="1">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J22" s="1">
@@ -1464,6 +1483,7 @@
         <v>12</v>
       </c>
       <c r="I23" s="1">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J23" s="1">
@@ -1506,6 +1526,7 @@
         <v>13</v>
       </c>
       <c r="I24" s="1">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J24" s="1">
@@ -1548,6 +1569,7 @@
         <v>14</v>
       </c>
       <c r="I25" s="1">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J25" s="1">
@@ -1590,6 +1612,7 @@
         <v>15</v>
       </c>
       <c r="I26" s="1">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J26" s="1">
@@ -1632,6 +1655,7 @@
         <v>16</v>
       </c>
       <c r="I27" s="1">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J27" s="1">
@@ -1674,6 +1698,7 @@
         <v>17</v>
       </c>
       <c r="I28" s="1">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J28" s="1">
@@ -1716,6 +1741,7 @@
         <v>18</v>
       </c>
       <c r="I29" s="1">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J29" s="1">
@@ -1758,6 +1784,7 @@
         <v>19</v>
       </c>
       <c r="I30" s="1">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J30" s="1">
@@ -1800,6 +1827,7 @@
         <v>20</v>
       </c>
       <c r="I31" s="1">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J31" s="1">
@@ -1842,6 +1870,7 @@
         <v>21</v>
       </c>
       <c r="I32" s="1">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J32" s="1">
@@ -1884,6 +1913,7 @@
         <v>22</v>
       </c>
       <c r="I33" s="1">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J33" s="1">
@@ -1926,6 +1956,7 @@
         <v>23</v>
       </c>
       <c r="I34" s="1">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J34" s="1">
@@ -1968,6 +1999,7 @@
         <v>24</v>
       </c>
       <c r="I35" s="1">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J35" s="1">
@@ -1991,7 +2023,7 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="2">
-        <f t="shared" ref="D36:D38" si="7">1.1*$A$1*0.5</f>
+        <f t="shared" ref="D36:D38" si="8">1.1*$A$1*0.5</f>
         <v>17.600000000000001</v>
       </c>
       <c r="E36" s="1">
@@ -2010,6 +2042,7 @@
         <v>25</v>
       </c>
       <c r="I36" s="1">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J36" s="1">
@@ -2033,7 +2066,7 @@
         <v>53</v>
       </c>
       <c r="D37" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>17.600000000000001</v>
       </c>
       <c r="E37" s="1">
@@ -2052,6 +2085,7 @@
         <v>26</v>
       </c>
       <c r="I37" s="1">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J37" s="1">
@@ -2075,7 +2109,7 @@
         <v>52.5</v>
       </c>
       <c r="D38" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>17.600000000000001</v>
       </c>
       <c r="E38" s="1">
@@ -2094,6 +2128,7 @@
         <v>27</v>
       </c>
       <c r="I38" s="1">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J38" s="1">

--- a/LR3/table_1_32.xlsx
+++ b/LR3/table_1_32.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D3238B-235E-42DA-8F10-9189CA20838B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB03F75-18EE-447D-B148-2CD7D1BE25ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -193,9 +193,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0\ _₽"/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -256,7 +253,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -539,8 +536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E25" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -637,6 +634,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
+        <f>A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -647,11 +645,11 @@
         <v>69.5</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" ref="D4:D34" si="0">1.1*$A$1</f>
+        <f>D3</f>
         <v>35.200000000000003</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E38" si="1">C4*D4</f>
+        <f t="shared" ref="E4:E38" si="0">C4*D4</f>
         <v>2446.4</v>
       </c>
       <c r="F4" s="5">
@@ -662,7 +660,7 @@
         <v>44806</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" ref="H4:H38" si="2">IF(G4&lt;F4,0,G4-F4)</f>
+        <f t="shared" ref="H4:H38" si="1">IF(G4&lt;F4,0,G4-F4)</f>
         <v>0</v>
       </c>
       <c r="I4" s="1">
@@ -670,16 +668,17 @@
         <v>10</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" ref="J4:J38" si="3">I4*H4</f>
+        <f t="shared" ref="J4:J38" si="2">I4*H4</f>
         <v>0</v>
       </c>
       <c r="K4" s="1">
-        <f t="shared" ref="K4:K38" si="4">E4+J4</f>
+        <f t="shared" ref="K4:K38" si="3">E4+J4</f>
         <v>2446.4</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
+        <f t="shared" ref="A5:A38" si="4">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -690,22 +689,22 @@
         <v>69</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D5:D38" si="5">D4</f>
         <v>35.200000000000003</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2428.8000000000002</v>
       </c>
       <c r="F5" s="5">
-        <f t="shared" ref="F5:F38" si="5">F4</f>
+        <f t="shared" ref="F5:F38" si="6">F4</f>
         <v>44813</v>
       </c>
       <c r="G5" s="5">
         <v>44807</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I5" s="1">
@@ -713,1431 +712,1464 @@
         <v>10</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2428.8000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" ref="C6:C38" si="6">C5-0.5</f>
+        <f t="shared" ref="C6:C38" si="7">C5-0.5</f>
         <v>68.5</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>35.200000000000003</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2411.2000000000003</v>
       </c>
       <c r="F6" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G6" s="5">
         <v>44808</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" ref="I6:I38" si="7">I5</f>
+        <f t="shared" ref="I6:I38" si="8">I5</f>
         <v>10</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2411.2000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>68</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>35.200000000000003</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2393.6000000000004</v>
       </c>
       <c r="F7" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G7" s="5">
         <v>44809</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K7" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2393.6000000000004</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>35.200000000000003</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2376</v>
       </c>
       <c r="F8" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G8" s="5">
         <v>44810</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I8" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2376</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>67</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>35.200000000000003</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2358.4</v>
       </c>
       <c r="F9" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G9" s="5">
         <v>44811</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2358.4</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>35.200000000000003</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2340.8000000000002</v>
       </c>
       <c r="F10" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G10" s="5">
         <v>44812</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K10" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2340.8000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>66</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>35.200000000000003</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2323.2000000000003</v>
       </c>
       <c r="F11" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G11" s="5">
         <v>44813</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2323.2000000000003</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>35.200000000000003</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2305.6000000000004</v>
       </c>
       <c r="F12" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G12" s="5">
         <v>44814</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="K12" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2315.6000000000004</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>65</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>35.200000000000003</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2288</v>
       </c>
       <c r="F13" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G13" s="5">
         <v>44815</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="K13" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2308</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>35.200000000000003</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2270.4</v>
       </c>
       <c r="F14" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G14" s="5">
         <v>44816</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I14" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="K14" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2300.4</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>64</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>35.200000000000003</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2252.8000000000002</v>
       </c>
       <c r="F15" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G15" s="5">
         <v>44817</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I15" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="K15" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2292.8000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>35.200000000000003</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2235.2000000000003</v>
       </c>
       <c r="F16" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G16" s="5">
         <v>44818</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="I16" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="K16" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2285.2000000000003</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>63</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>35.200000000000003</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2217.6000000000004</v>
       </c>
       <c r="F17" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G17" s="5">
         <v>44819</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="I17" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="K17" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2277.6000000000004</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>35.200000000000003</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2200</v>
       </c>
       <c r="F18" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G18" s="5">
         <v>44820</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="I18" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2270</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>62</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>35.200000000000003</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2182.4</v>
       </c>
       <c r="F19" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G19" s="5">
         <v>44821</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="I19" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2262.4</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>35.200000000000003</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2164.8000000000002</v>
       </c>
       <c r="F20" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G20" s="5">
         <v>44822</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="I20" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2254.8000000000002</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>61</v>
       </c>
       <c r="D21" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>35.200000000000003</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2147.2000000000003</v>
       </c>
       <c r="F21" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G21" s="5">
         <v>44823</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="I21" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2247.2000000000003</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>35.200000000000003</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2129.6000000000004</v>
       </c>
       <c r="F22" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G22" s="5">
         <v>44824</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="I22" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2239.6000000000004</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>60</v>
       </c>
       <c r="D23" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>35.200000000000003</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2112</v>
       </c>
       <c r="F23" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G23" s="5">
         <v>44825</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="I23" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>120</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2232</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>35.200000000000003</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2094.4</v>
       </c>
       <c r="F24" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G24" s="5">
         <v>44826</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="I24" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>130</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2224.4</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>59</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>35.200000000000003</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2076.8000000000002</v>
       </c>
       <c r="F25" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G25" s="5">
         <v>44827</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="I25" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2216.8000000000002</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>35.200000000000003</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2059.2000000000003</v>
       </c>
       <c r="F26" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G26" s="5">
         <v>44828</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="I26" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2209.2000000000003</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>58</v>
       </c>
       <c r="D27" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>35.200000000000003</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2041.6000000000001</v>
       </c>
       <c r="F27" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G27" s="5">
         <v>44829</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="I27" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
       <c r="K27" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2201.6000000000004</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>35.200000000000003</v>
       </c>
       <c r="E28" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2024.0000000000002</v>
       </c>
       <c r="F28" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G28" s="5">
         <v>44830</v>
       </c>
       <c r="H28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="I28" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
       <c r="K28" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2194</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>57</v>
       </c>
       <c r="D29" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>35.200000000000003</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2006.4</v>
       </c>
       <c r="F29" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G29" s="5">
         <v>44831</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="I29" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="K29" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2186.4</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>35.200000000000003</v>
       </c>
       <c r="E30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1988.8000000000002</v>
       </c>
       <c r="F30" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G30" s="5">
         <v>44832</v>
       </c>
       <c r="H30" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="I30" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J30" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>190</v>
       </c>
       <c r="K30" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2178.8000000000002</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>56</v>
       </c>
       <c r="D31" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>35.200000000000003</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1971.2000000000003</v>
       </c>
       <c r="F31" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G31" s="5">
         <v>44833</v>
       </c>
       <c r="H31" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="I31" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J31" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
       <c r="K31" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2171.2000000000003</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>35.200000000000003</v>
       </c>
       <c r="E32" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1953.6000000000001</v>
       </c>
       <c r="F32" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G32" s="5">
         <v>44834</v>
       </c>
       <c r="H32" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="I32" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J32" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>210</v>
       </c>
       <c r="K32" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2163.6000000000004</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C33" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>55</v>
       </c>
       <c r="D33" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>35.200000000000003</v>
       </c>
       <c r="E33" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1936.0000000000002</v>
       </c>
       <c r="F33" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G33" s="5">
         <v>44835</v>
       </c>
       <c r="H33" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="I33" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J33" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>220</v>
       </c>
       <c r="K33" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2156</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C34" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>35.200000000000003</v>
       </c>
       <c r="E34" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1918.4</v>
       </c>
       <c r="F34" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G34" s="5">
         <v>44836</v>
       </c>
       <c r="H34" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="I34" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J34" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>230</v>
       </c>
       <c r="K34" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2148.4</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C35" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>54</v>
       </c>
       <c r="D35" s="2">
-        <f>1.1*$A$1*0.5</f>
-        <v>17.600000000000001</v>
+        <f>D3/3</f>
+        <v>11.733333333333334</v>
       </c>
       <c r="E35" s="1">
-        <f t="shared" si="1"/>
-        <v>950.40000000000009</v>
+        <f t="shared" si="0"/>
+        <v>633.6</v>
       </c>
       <c r="F35" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G35" s="5">
         <v>44837</v>
       </c>
       <c r="H35" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="I35" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J35" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>240</v>
       </c>
       <c r="K35" s="1">
-        <f t="shared" si="4"/>
-        <v>1190.4000000000001</v>
+        <f t="shared" si="3"/>
+        <v>873.6</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C36" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="2">
-        <f t="shared" ref="D36:D38" si="8">1.1*$A$1*0.5</f>
-        <v>17.600000000000001</v>
+        <f t="shared" ref="D36:D38" si="9">D4/3</f>
+        <v>11.733333333333334</v>
       </c>
       <c r="E36" s="1">
-        <f t="shared" si="1"/>
-        <v>941.6</v>
+        <f t="shared" si="0"/>
+        <v>627.73333333333335</v>
       </c>
       <c r="F36" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G36" s="5">
         <v>44838</v>
       </c>
       <c r="H36" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="I36" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J36" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>250</v>
       </c>
       <c r="K36" s="1">
-        <f t="shared" si="4"/>
-        <v>1191.5999999999999</v>
+        <f t="shared" si="3"/>
+        <v>877.73333333333335</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C37" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>53</v>
       </c>
       <c r="D37" s="2">
-        <f t="shared" si="8"/>
-        <v>17.600000000000001</v>
+        <f t="shared" si="9"/>
+        <v>11.733333333333334</v>
       </c>
       <c r="E37" s="1">
-        <f t="shared" si="1"/>
-        <v>932.80000000000007</v>
+        <f t="shared" si="0"/>
+        <v>621.86666666666667</v>
       </c>
       <c r="F37" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G37" s="5">
         <v>44839</v>
       </c>
       <c r="H37" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="I37" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J37" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>260</v>
       </c>
       <c r="K37" s="1">
-        <f t="shared" si="4"/>
-        <v>1192.8000000000002</v>
+        <f t="shared" si="3"/>
+        <v>881.86666666666667</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C38" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="2">
-        <f t="shared" si="8"/>
-        <v>17.600000000000001</v>
+        <f t="shared" si="9"/>
+        <v>11.733333333333334</v>
       </c>
       <c r="E38" s="1">
-        <f t="shared" si="1"/>
-        <v>924.00000000000011</v>
+        <f t="shared" si="0"/>
+        <v>616</v>
       </c>
       <c r="F38" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G38" s="5">
         <v>44840</v>
       </c>
       <c r="H38" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="I38" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J38" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>270</v>
       </c>
       <c r="K38" s="1">
-        <f t="shared" si="4"/>
-        <v>1194</v>
+        <f t="shared" si="3"/>
+        <v>886</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
@@ -2145,8 +2177,8 @@
         <v>46</v>
       </c>
       <c r="C40" s="8">
-        <f>SUM(K3:K38)</f>
-        <v>77647.200000000012</v>
+        <f>FLOOR(SUM(K3:K38),1)</f>
+        <v>76397</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
@@ -2154,7 +2186,7 @@
         <v>47</v>
       </c>
       <c r="C41" s="1">
-        <f>SUM(C3:C38)/36</f>
+        <f>AVERAGE(C3:C38)</f>
         <v>61.25</v>
       </c>
     </row>

--- a/LR3/table_1_32.xlsx
+++ b/LR3/table_1_32.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB03F75-18EE-447D-B148-2CD7D1BE25ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A912465-B15E-4441-896B-D8E0E638DE18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -536,8 +536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -689,7 +689,7 @@
         <v>69</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" ref="D5:D38" si="5">D4</f>
+        <f t="shared" ref="D5:D34" si="5">D4</f>
         <v>35.200000000000003</v>
       </c>
       <c r="E5" s="1">
@@ -2009,12 +2009,12 @@
         <v>54</v>
       </c>
       <c r="D35" s="2">
-        <f>D3/3</f>
-        <v>11.733333333333334</v>
+        <f>D3/2</f>
+        <v>17.600000000000001</v>
       </c>
       <c r="E35" s="1">
         <f t="shared" si="0"/>
-        <v>633.6</v>
+        <v>950.40000000000009</v>
       </c>
       <c r="F35" s="5">
         <f t="shared" si="6"/>
@@ -2037,7 +2037,7 @@
       </c>
       <c r="K35" s="1">
         <f t="shared" si="3"/>
-        <v>873.6</v>
+        <v>1190.4000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -2053,12 +2053,12 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="2">
-        <f t="shared" ref="D36:D38" si="9">D4/3</f>
-        <v>11.733333333333334</v>
+        <f t="shared" ref="D36:D38" si="9">D4/2</f>
+        <v>17.600000000000001</v>
       </c>
       <c r="E36" s="1">
         <f t="shared" si="0"/>
-        <v>627.73333333333335</v>
+        <v>941.6</v>
       </c>
       <c r="F36" s="5">
         <f t="shared" si="6"/>
@@ -2081,7 +2081,7 @@
       </c>
       <c r="K36" s="1">
         <f t="shared" si="3"/>
-        <v>877.73333333333335</v>
+        <v>1191.5999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -2098,11 +2098,11 @@
       </c>
       <c r="D37" s="2">
         <f t="shared" si="9"/>
-        <v>11.733333333333334</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="E37" s="1">
         <f t="shared" si="0"/>
-        <v>621.86666666666667</v>
+        <v>932.80000000000007</v>
       </c>
       <c r="F37" s="5">
         <f t="shared" si="6"/>
@@ -2125,7 +2125,7 @@
       </c>
       <c r="K37" s="1">
         <f t="shared" si="3"/>
-        <v>881.86666666666667</v>
+        <v>1192.8000000000002</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -2142,11 +2142,11 @@
       </c>
       <c r="D38" s="2">
         <f t="shared" si="9"/>
-        <v>11.733333333333334</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="E38" s="1">
         <f t="shared" si="0"/>
-        <v>616</v>
+        <v>924.00000000000011</v>
       </c>
       <c r="F38" s="5">
         <f t="shared" si="6"/>
@@ -2169,7 +2169,7 @@
       </c>
       <c r="K38" s="1">
         <f t="shared" si="3"/>
-        <v>886</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
@@ -2178,7 +2178,7 @@
       </c>
       <c r="C40" s="8">
         <f>FLOOR(SUM(K3:K38),1)</f>
-        <v>76397</v>
+        <v>77647</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">

--- a/LR3/table_1_32.xlsx
+++ b/LR3/table_1_32.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A912465-B15E-4441-896B-D8E0E638DE18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321071D3-79EC-4CD7-8AD3-9B160368BC3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -156,15 +156,9 @@
     <t>Площадь, кв.м.</t>
   </si>
   <si>
-    <t>Фамилия квартиросъемщика</t>
-  </si>
-  <si>
     <t>Сумма, руб.</t>
   </si>
   <si>
-    <t>Тариф, руб.кв.</t>
-  </si>
-  <si>
     <t>Просрочка, дней</t>
   </si>
   <si>
@@ -187,6 +181,12 @@
   </si>
   <si>
     <t>Пенни за день, руб.</t>
+  </si>
+  <si>
+    <t>Фамилия квартиросъёмщика</t>
+  </si>
+  <si>
+    <t>Тариф, руб./кв.м.</t>
   </si>
 </sst>
 </file>
@@ -536,8 +536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -562,16 +562,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>2</v>
       </c>
       <c r="H2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -2174,7 +2174,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B40" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C40" s="8">
         <f>FLOOR(SUM(K3:K38),1)</f>
@@ -2183,7 +2183,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
@@ -2192,7 +2192,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B42" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2201,7 +2201,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B43" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_32.xlsx
+++ b/LR3/table_1_32.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321071D3-79EC-4CD7-8AD3-9B160368BC3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D783E15-466B-4703-B8D8-1796EAA79D95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -144,15 +144,6 @@
     <t>Ершов</t>
   </si>
   <si>
-    <t>Иванов 1</t>
-  </si>
-  <si>
-    <t>Иванов 2</t>
-  </si>
-  <si>
-    <t>Иванов 3</t>
-  </si>
-  <si>
     <t>Площадь, кв.м.</t>
   </si>
   <si>
@@ -168,18 +159,12 @@
     <t>Итого, руб.</t>
   </si>
   <si>
-    <t>Общая сумма графы “Итого”, руб.</t>
-  </si>
-  <si>
     <t>Средняя площадь, кв.м.</t>
   </si>
   <si>
     <t>Максимальный срок просрочки, дней</t>
   </si>
   <si>
-    <t>Максимальная сумма к оплате, руб.</t>
-  </si>
-  <si>
     <t>Пенни за день, руб.</t>
   </si>
   <si>
@@ -187,6 +172,21 @@
   </si>
   <si>
     <t>Тариф, руб./кв.м.</t>
+  </si>
+  <si>
+    <t>Общая сумма, руб.</t>
+  </si>
+  <si>
+    <t>Мохамед</t>
+  </si>
+  <si>
+    <t>Куропаткин 1</t>
+  </si>
+  <si>
+    <t>Банницин</t>
+  </si>
+  <si>
+    <t>Максимальная сумма, руб.</t>
   </si>
 </sst>
 </file>
@@ -536,8 +536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -562,16 +562,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>2</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -2046,7 +2046,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="7"/>
@@ -2090,7 +2090,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="7"/>
@@ -2134,7 +2134,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="7"/>
@@ -2174,7 +2174,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B40" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C40" s="8">
         <f>FLOOR(SUM(K3:K38),1)</f>
@@ -2183,7 +2183,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
@@ -2192,7 +2192,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B42" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2201,7 +2201,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B43" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_32.xlsx
+++ b/LR3/table_1_32.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D783E15-466B-4703-B8D8-1796EAA79D95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D9D5DFD-4072-42F5-91F3-91E0A3A3BD81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -193,7 +193,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,13 +204,6 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF282C34"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -236,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -252,7 +245,6 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -536,8 +528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2173,10 +2165,10 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C40" s="8">
+      <c r="C40" s="7">
         <f>FLOOR(SUM(K3:K38),1)</f>
         <v>77647</v>
       </c>

--- a/LR3/table_1_32.xlsx
+++ b/LR3/table_1_32.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D9D5DFD-4072-42F5-91F3-91E0A3A3BD81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0453544-6945-4C06-9151-72319B6E0729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -165,9 +165,6 @@
     <t>Максимальный срок просрочки, дней</t>
   </si>
   <si>
-    <t>Пенни за день, руб.</t>
-  </si>
-  <si>
     <t>Фамилия квартиросъёмщика</t>
   </si>
   <si>
@@ -187,6 +184,9 @@
   </si>
   <si>
     <t>Максимальная сумма, руб.</t>
+  </si>
+  <si>
+    <t>Пенни за день</t>
   </si>
 </sst>
 </file>
@@ -229,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -246,6 +246,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -528,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -554,13 +558,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>37</v>
@@ -575,7 +579,7 @@
         <v>38</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>39</v>
@@ -585,10 +589,10 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="1">
@@ -625,7 +629,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="A4" s="8">
         <f>A3+1</f>
         <v>2</v>
       </c>
@@ -669,7 +673,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+      <c r="A5" s="8">
         <f t="shared" ref="A5:A38" si="4">A4+1</f>
         <v>3</v>
       </c>
@@ -713,7 +717,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+      <c r="A6" s="8">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
@@ -757,7 +761,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+      <c r="A7" s="8">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
@@ -801,7 +805,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+      <c r="A8" s="8">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
@@ -845,7 +849,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+      <c r="A9" s="8">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
@@ -889,7 +893,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+      <c r="A10" s="8">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
@@ -933,7 +937,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+      <c r="A11" s="8">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
@@ -977,7 +981,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+      <c r="A12" s="8">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
@@ -1021,7 +1025,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+      <c r="A13" s="8">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
@@ -1065,7 +1069,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+      <c r="A14" s="8">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
@@ -1109,7 +1113,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
+      <c r="A15" s="8">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
@@ -1153,7 +1157,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
+      <c r="A16" s="8">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
@@ -1197,7 +1201,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
+      <c r="A17" s="8">
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
@@ -1241,7 +1245,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
+      <c r="A18" s="8">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
@@ -1285,7 +1289,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
+      <c r="A19" s="8">
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
@@ -1329,7 +1333,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
+      <c r="A20" s="8">
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
@@ -1373,7 +1377,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
+      <c r="A21" s="8">
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
@@ -1417,7 +1421,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
+      <c r="A22" s="8">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
@@ -1461,7 +1465,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
+      <c r="A23" s="8">
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
@@ -1505,7 +1509,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
+      <c r="A24" s="8">
         <f t="shared" si="4"/>
         <v>22</v>
       </c>
@@ -1549,7 +1553,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
+      <c r="A25" s="8">
         <f t="shared" si="4"/>
         <v>23</v>
       </c>
@@ -1593,7 +1597,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
+      <c r="A26" s="8">
         <f t="shared" si="4"/>
         <v>24</v>
       </c>
@@ -1637,7 +1641,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
+      <c r="A27" s="8">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
@@ -1681,7 +1685,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
+      <c r="A28" s="8">
         <f t="shared" si="4"/>
         <v>26</v>
       </c>
@@ -1725,7 +1729,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
+      <c r="A29" s="8">
         <f t="shared" si="4"/>
         <v>27</v>
       </c>
@@ -1769,7 +1773,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
+      <c r="A30" s="8">
         <f t="shared" si="4"/>
         <v>28</v>
       </c>
@@ -1813,7 +1817,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
+      <c r="A31" s="8">
         <f t="shared" si="4"/>
         <v>29</v>
       </c>
@@ -1857,7 +1861,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
+      <c r="A32" s="8">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
@@ -1901,7 +1905,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
+      <c r="A33" s="8">
         <f t="shared" si="4"/>
         <v>31</v>
       </c>
@@ -1945,7 +1949,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
+      <c r="A34" s="8">
         <f t="shared" si="4"/>
         <v>32</v>
       </c>
@@ -1989,7 +1993,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
+      <c r="A35" s="8">
         <f t="shared" si="4"/>
         <v>33</v>
       </c>
@@ -2033,12 +2037,12 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
+      <c r="A36" s="8">
         <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="7"/>
@@ -2077,12 +2081,12 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
+      <c r="A37" s="8">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="7"/>
@@ -2121,12 +2125,12 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
+      <c r="A38" s="8">
         <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="7"/>
@@ -2166,7 +2170,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C40" s="7">
         <f>FLOOR(SUM(K3:K38),1)</f>
@@ -2193,7 +2197,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B43" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_32.xlsx
+++ b/LR3/table_1_32.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0453544-6945-4C06-9151-72319B6E0729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDDFD0B2-1A07-4C43-9ABE-8F36EBD0745D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -186,7 +186,7 @@
     <t>Максимальная сумма, руб.</t>
   </si>
   <si>
-    <t>Пенни за день</t>
+    <t>Пенни за 1 день, руб.</t>
   </si>
 </sst>
 </file>
@@ -532,7 +532,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>

--- a/LR3/table_1_32.xlsx
+++ b/LR3/table_1_32.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDDFD0B2-1A07-4C43-9ABE-8F36EBD0745D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E00102DB-2B99-4A90-8ABE-70C732CC0EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -533,7 +533,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -660,7 +660,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <f>I3</f>
+        <f>$I$3</f>
         <v>10</v>
       </c>
       <c r="J4" s="1">
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <f>I4</f>
+        <f>$I$3</f>
         <v>10</v>
       </c>
       <c r="J5" s="1">
@@ -748,7 +748,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" ref="I6:I38" si="8">I5</f>
+        <f t="shared" ref="I6:I38" si="8">$I$3</f>
         <v>10</v>
       </c>
       <c r="J6" s="1">
@@ -2169,7 +2169,7 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="8" t="s">
         <v>45</v>
       </c>
       <c r="C40" s="7">
@@ -2178,7 +2178,7 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="8" t="s">
         <v>41</v>
       </c>
       <c r="C41" s="1">
@@ -2187,7 +2187,7 @@
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="8" t="s">
         <v>42</v>
       </c>
       <c r="C42" s="1">
@@ -2196,7 +2196,7 @@
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="8" t="s">
         <v>49</v>
       </c>
       <c r="C43" s="1">

--- a/LR3/table_1_32.xlsx
+++ b/LR3/table_1_32.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E00102DB-2B99-4A90-8ABE-70C732CC0EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4FE779F-883C-4D24-8128-E51D448A6B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -532,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>

--- a/LR3/table_1_32.xlsx
+++ b/LR3/table_1_32.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3DDF92B-91B6-4652-9737-3D0DA612E320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A25ECC7-F6EE-4EFD-82C1-3F877687A5F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -517,8 +517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>

--- a/LR3/table_1_32.xlsx
+++ b/LR3/table_1_32.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A25ECC7-F6EE-4EFD-82C1-3F877687A5F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2565A0F-8CB0-4516-AED7-316AB1EE0AD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -181,7 +181,7 @@
     <t>Максимальная сумма, руб.</t>
   </si>
   <si>
-    <t>Пенни за 1 день, руб.</t>
+    <t>Пени за 1 день, руб.</t>
   </si>
 </sst>
 </file>
@@ -517,8 +517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
